--- a/input_data/europe_country_codes/europe_country_code.xlsx
+++ b/input_data/europe_country_codes/europe_country_code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitoresearch-my.sharepoint.com/personal/partha_das_vito_be/Documents/Partha/work/times_veda/mopo/data_analysis_r/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitoresearch-my.sharepoint.com/personal/hans_vandeput_vito_be/Documents/Mopo/mopo_repo/input_data/europe_country_codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC104896599E62265BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42714617-4D42-4D50-8718-CE8701A92FD7}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_F25DC773A252ABDACC104896599E62265BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD6225F-2559-4236-A226-A9406EDB2C54}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,14 +523,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="A29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
